--- a/data/income_statement/3digits/total/511_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/511_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>511-Passenger air transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>511-Passenger air transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>11181832.69364</v>
@@ -965,13 +871,13 @@
         <v>26687054.12324</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>31689653.22479</v>
+        <v>33921687.72843</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>36660699.0063</v>
+        <v>39410742.37018001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>40133894.33883001</v>
+        <v>40133894.33883</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>55470425.62314</v>
@@ -980,13 +886,18 @@
         <v>84017930.17124</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>104032590.02205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>104044036.30899</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>57795623.549</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3519363.44053</v>
@@ -998,19 +909,19 @@
         <v>5986503.59228</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3557446.018540001</v>
+        <v>3557446.01854</v>
       </c>
       <c r="G6" s="48" t="n">
         <v>4219279.3141</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4527936.06519</v>
+        <v>5219468.077919999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5180207.18317</v>
+        <v>6257355.55062</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6532480.57893</v>
+        <v>6532480.578929999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>7942311.933979999</v>
@@ -1019,16 +930,21 @@
         <v>9288272.81735</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10368754.6165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10368905.88076</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6658206.331</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>7292266.819490001</v>
+        <v>7292266.81949</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>8675816.684079999</v>
@@ -1043,10 +959,10 @@
         <v>21478590.22325001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>25832456.45872</v>
+        <v>27362725.84435</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>29903590.5924</v>
+        <v>31563465.91206</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>31642240.42148</v>
@@ -1058,34 +974,39 @@
         <v>71430538.16269</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>89167838.6574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>89179133.68007998</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>48427185.396</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>370202.43362</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>264654.6205499999</v>
+        <v>264654.62055</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>421498.6374</v>
+        <v>421498.6373999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>720423.2345700001</v>
+        <v>720423.23457</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>989184.5858899999</v>
+        <v>989184.58589</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1329260.70088</v>
+        <v>1339493.80616</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1576901.23073</v>
+        <v>1589920.9075</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>1959173.33842</v>
@@ -1097,16 +1018,21 @@
         <v>3299119.1912</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>4495996.74815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4495996.748149999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2710231.822</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>99218.22927</v>
+        <v>99218.22927000001</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>93068.66839000001</v>
@@ -1121,10 +1047,10 @@
         <v>131958.20057</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>115209.90353</v>
+        <v>166727.5554</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>218589.86222</v>
+        <v>288092.33594</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>483472.48641</v>
@@ -1138,32 +1064,37 @@
       <c r="M9" s="47" t="n">
         <v>708210.83412</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>332608.914</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>80870.26713000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>72265.98604999998</v>
+        <v>72265.98604999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>66373.47027000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>62421.78694000001</v>
+        <v>62421.78694</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>76402.40445</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>97700.96124999999</v>
+        <v>98408.12901</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>195435.50723</v>
+        <v>197807.75926</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>356598.10063</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>518671.63282</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>240328.581</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>17802.19985</v>
@@ -1199,10 +1135,10 @@
         <v>51887.93966</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>17197.83028</v>
+        <v>61469.64458000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>21455.50314</v>
+        <v>78877.02372</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>112057.84513</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>184426.455</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>73831.50999999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>545.7622899999999</v>
+        <v>545.76229</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>600.2426800000001</v>
@@ -1238,10 +1179,10 @@
         <v>3667.85646</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>311.112</v>
+        <v>6849.781809999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1698.85185</v>
+        <v>11407.55296</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>14816.54065</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>5112.7463</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>18448.823</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>11082614.46437</v>
@@ -1277,13 +1223,13 @@
         <v>26555095.92267</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>31574443.32126</v>
+        <v>33754960.17303</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>36442109.14408</v>
+        <v>39122650.03424</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>39650421.85242</v>
+        <v>39650421.85241999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>55028478.66259</v>
@@ -1292,16 +1238,21 @@
         <v>83643115.90616</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>103324379.18793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>103335825.47487</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>57463014.635</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>9080785.79287</v>
+        <v>9080785.792869998</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>11929942.72516</v>
@@ -1316,13 +1267,13 @@
         <v>23024124.20684</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>27564627.87581</v>
+        <v>29417337.89819</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>30649418.34593</v>
+        <v>32944615.02753</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>37579741.86072999</v>
+        <v>37579741.86073</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>47603646.92856</v>
@@ -1331,13 +1282,18 @@
         <v>72960828.48287</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>86247235.58959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>86257443.01608001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>50793591.572</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>668.16909</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>164.695</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>105859.85809</v>
@@ -1394,7 +1355,7 @@
         <v>23873.81385</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>40659.47533</v>
+        <v>40659.47533000001</v>
       </c>
       <c r="I16" s="48" t="n">
         <v>54412.37565</v>
@@ -1411,14 +1372,19 @@
       <c r="M16" s="48" t="n">
         <v>113600.51601</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>97348.095</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>8971063.323349999</v>
+        <v>8971063.323350001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>11913339.33442</v>
@@ -1433,10 +1399,10 @@
         <v>22999216.71997</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>27519587.79165</v>
+        <v>29372297.81403</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>30594149.92101</v>
+        <v>32888138.42862</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>37525463.26492</v>
@@ -1445,16 +1411,21 @@
         <v>44241263.36277</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>72751171.50309001</v>
+        <v>72751171.50308999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>86126377.24372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>86136584.67021</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>50695603.387</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>3862.61143</v>
@@ -1475,7 +1446,7 @@
         <v>4198.67471</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>636.1421000000001</v>
+        <v>1844.31609</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>6994.63014</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>6589.66077</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>475.395</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2001828.6715</v>
@@ -1505,16 +1481,16 @@
         <v>1027024.43698</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3273410.775780001</v>
+        <v>3273410.77578</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3530971.715830001</v>
+        <v>3530971.71583</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4009815.44545</v>
+        <v>4337622.274839999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5792690.79815</v>
+        <v>6178035.00671</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>2070679.99169</v>
@@ -1526,13 +1502,18 @@
         <v>10682287.42329</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>17077143.59834</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17078382.45879</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6669423.063</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1670425.47549</v>
@@ -1541,7 +1522,7 @@
         <v>2003535.98022</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2561467.166260001</v>
+        <v>2561467.16626</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>2811707.47343</v>
@@ -1550,28 +1531,33 @@
         <v>3570862.96385</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3815744.89479</v>
+        <v>4004822.02676</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4867461.3949</v>
+        <v>5091709.89281</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6063311.5762</v>
+        <v>6063314.825829999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>6610368.785050001</v>
+        <v>6610368.78505</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9750850.85782</v>
+        <v>9750868.413360002</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12178891.33829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12179123.83653</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>8218600.868</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>180.80087</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>94.789</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>985552.9014600001</v>
@@ -1628,34 +1619,39 @@
         <v>2177782.49366</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2663071.40188</v>
+        <v>2692250.304</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3379414.18941</v>
+        <v>3418378.1559</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>3878514.75028</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4444395.384860002</v>
+        <v>4444395.38486</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6685819.902170001</v>
+        <v>6685819.90217</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>8582089.770070001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>8582091.89907</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4858190.178</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>684872.5740300001</v>
+        <v>684872.57403</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>836363.58348</v>
+        <v>836363.5834800001</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>1045111.33299</v>
@@ -1667,34 +1663,39 @@
         <v>1392601.62359</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1152673.49291</v>
+        <v>1312571.72276</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1488047.20549</v>
+        <v>1673331.73691</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2168860.40215</v>
+        <v>2168863.65178</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2164145.96319</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3063943.77822</v>
+        <v>3063961.33376</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3596620.76735</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3596851.13659</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3360315.901</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>331403.19601</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-650833.6805200001</v>
+        <v>-650833.6805199999</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>-1534442.72928</v>
@@ -1706,28 +1707,33 @@
         <v>-39891.24802000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>194070.55066</v>
+        <v>332800.24808</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>925229.40325</v>
+        <v>1086325.1139</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-3992631.58451</v>
+        <v>-3992634.83414</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>814462.9489800001</v>
+        <v>814462.94898</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>931436.56547</v>
+        <v>931419.0099299999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4898252.260050001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4899258.622260001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-1549177.805</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1943460.14068</v>
@@ -1745,10 +1751,10 @@
         <v>2210656.81245</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6749006.456409999</v>
+        <v>7006965.92925</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>17533609.83373</v>
+        <v>18608161.64176</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>9387011.295459999</v>
@@ -1760,13 +1766,18 @@
         <v>60479591.51725</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>29456504.47338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>29463976.33513</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>37622867.802</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1133.80223</v>
@@ -1784,10 +1795,10 @@
         <v>22934.63331</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>79181.44071</v>
+        <v>79185.01009000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>76847.06821000001</v>
+        <v>76850.40842000001</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>72164.19927</v>
@@ -1799,13 +1810,18 @@
         <v>150349.36941</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>340611.99768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>340611.9976800001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>18009.277</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>16.79608</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>12401.205</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>171875.37737</v>
@@ -1862,13 +1883,13 @@
         <v>237142.49549</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>408931.9815399999</v>
+        <v>414225.01104</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>909817.33173</v>
+        <v>917692.8273900001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>781255.3119399999</v>
+        <v>781255.31194</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>887369.3093099999</v>
@@ -1877,13 +1898,18 @@
         <v>1429326.89421</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1597012.22229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1598040.25223</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1085123.678</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>12117.11386</v>
@@ -1901,10 +1927,10 @@
         <v>9190.809640000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3894.10517</v>
+        <v>9725.539279999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5220.735900000001</v>
+        <v>13237.68865</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>10759.90411</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>25362.4722</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>15176.375</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>21255.07339</v>
@@ -1940,10 +1971,10 @@
         <v>3866.28593</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3971.29046</v>
+        <v>3975.14018</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3632.86755</v>
+        <v>3656.36101</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>10313.90438</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>4111.24596</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>4945.489</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1960.16981</v>
@@ -1970,10 +2006,10 @@
         <v>1692.9796</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>5175.432169999999</v>
+        <v>5175.43217</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>53.04855</v>
+        <v>53.04855000000001</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>12316.82974</v>
@@ -1982,10 +2018,10 @@
         <v>158.51365</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>555.75136</v>
+        <v>556.8488599999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>69585.86639999998</v>
+        <v>69585.8664</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>6042.17475</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>80665.53781000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>33966.075</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1696971.73124</v>
@@ -2012,16 +2053,16 @@
         <v>1771486.35629</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>834193.4031099998</v>
+        <v>834193.4031100001</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>1535826.87119</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5890226.45645</v>
+        <v>6124779.101020001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>15793682.82065</v>
+        <v>16800885.72303</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>7276660.64615</v>
@@ -2033,13 +2074,18 @@
         <v>56544221.98869</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>25787461.9205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>25793905.75231</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>34085589.872</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,32 +2164,37 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>38146.87277999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>72916.55927999999</v>
+        <v>72916.55928</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>223471.70302</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>297285.2019499999</v>
+        <v>297285.20195</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>389378.88715</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>362592.05064</v>
+        <v>374866.9962000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>743853.2583300001</v>
+        <v>795281.7844</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>1166271.46321</v>
@@ -2152,11 +2208,16 @@
       <c r="M35" s="48" t="n">
         <v>1621262.28086</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>2367655.831</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1725902.64538</v>
@@ -2168,16 +2229,16 @@
         <v>1506179.73746</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>563355.8949300001</v>
+        <v>563355.89493</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>2816474.23141</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5706971.590519999</v>
+        <v>5954619.626049999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>18056772.24986</v>
+        <v>18980794.38063</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>12506709.57481</v>
@@ -2189,13 +2250,18 @@
         <v>65314436.14724</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>30076327.81296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>30076868.14217</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>56057295.889</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>4988.92161</v>
@@ -2216,7 +2282,7 @@
         <v>18321.04447</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>19595.20098</v>
+        <v>19611.4719</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>72661.79385</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>170037.66117</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>55423.525</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>17215.18356</v>
@@ -2252,13 +2323,13 @@
         <v>30227.17778</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7895.16653</v>
+        <v>8632.820089999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8356.06256</v>
+        <v>14171.26256</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>48598.73169</v>
+        <v>48598.73169000001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>31601.83402</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>40309.29973</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>56583.147</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>390.95423</v>
@@ -2291,7 +2367,7 @@
         <v>52.38986</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>44.58442</v>
+        <v>44.58442000000001</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>2284.4776</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>33605.07835</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>7653.22</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1692096.99554</v>
@@ -2330,10 +2411,10 @@
         <v>2718364.41318</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>5618322.862709999</v>
+        <v>5857073.16844</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>16770915.29496</v>
+        <v>17689105.95481</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>10955278.43066</v>
@@ -2342,16 +2423,21 @@
         <v>17248513.55922</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>64809304.72117001</v>
+        <v>64809304.72117</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>29209315.2388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>29209855.56801</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>53352304.064</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>11210.59044</v>
@@ -2438,16 +2534,16 @@
         <v>23325.99128</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>34710.28462999999</v>
+        <v>34710.28463</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>43987.34472000001</v>
+        <v>43987.34472</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>50335.35713</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>62376.3001</v>
+        <v>70536.37634</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>1255621.21376</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>623060.5349099999</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>2585331.933</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>173865.32798</v>
@@ -2486,10 +2587,10 @@
         <v>567364.1723000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>608753.43399</v>
+        <v>623324.7650700001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1028338.9861</v>
+        <v>1058264.4799</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>1209460.9908</v>
@@ -2501,13 +2602,18 @@
         <v>4325578.31478</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2533962.13559</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2533963.21094</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4235968.544</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>150302.61506</v>
@@ -2522,13 +2628,13 @@
         <v>437865.91363</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>551003.02767</v>
+        <v>551003.0276700001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>591454.88107</v>
+        <v>599691.35143</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>999251.32278</v>
+        <v>1019929.65139</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>1164762.11507</v>
@@ -2540,13 +2646,18 @@
         <v>4240213.57143</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2474816.92321</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2474817.99856</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4181039.65</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>23562.71292</v>
@@ -2558,79 +2669,89 @@
         <v>24176.77416</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>5995.266680000001</v>
+        <v>5995.26668</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>16361.14463</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>17298.55292</v>
+        <v>23633.41364</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>29087.66332</v>
+        <v>38334.82851</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>44698.87573000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>40934.22459</v>
+        <v>40934.22459000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>85364.74335</v>
+        <v>85364.74334999999</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>59145.21238</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>54928.894</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>375095.36333</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-584583.7857500002</v>
+        <v>-584583.78575</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>-2000175.00605</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>936214.3142700001</v>
+        <v>936214.31427</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>-1213072.83928</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>627351.98256</v>
+        <v>761821.7862100002</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-626271.99898</v>
+        <v>-344572.10487</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-8321790.85466</v>
+        <v>-8321794.10429</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-4084563.74681</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-8228986.3793</v>
+        <v>-8229003.934839999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1744466.78488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1752403.60428</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-24219574.436</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>185442.20689</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>287605.6889499999</v>
+        <v>287605.68895</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>422572.6117600001</v>
@@ -2642,28 +2763,33 @@
         <v>192414.28321</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>289775.90356</v>
+        <v>301505.54903</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>425091.32593</v>
+        <v>448174.86956</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>407827.37425</v>
+        <v>407827.3742499999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1071745.24526</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>636273.6314899999</v>
+        <v>636273.6314900001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1711078.01706</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1711078.0174</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1509460.733</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>19013.49249</v>
@@ -2672,19 +2798,19 @@
         <v>6616.70167</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>6202.73784</v>
+        <v>6202.737840000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>7541.01722</v>
+        <v>7541.017220000001</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>3716.0837</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>7193.66328</v>
+        <v>7193.663280000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>6222.133229999999</v>
+        <v>6357.7566</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>17368.06162</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>21754.63049</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>99563.334</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>166428.7144</v>
@@ -2720,10 +2851,10 @@
         <v>188698.19951</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>282582.24028</v>
+        <v>294311.88575</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>418869.1927</v>
+        <v>441817.1129600001</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>390459.31263</v>
@@ -2735,19 +2866,24 @@
         <v>607189.7718</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1689323.38657</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1689323.38691</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1409897.399</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>106635.25498</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>79208.22606</v>
+        <v>79208.22606000002</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>171659.48597</v>
@@ -2759,10 +2895,10 @@
         <v>151222.82441</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>161045.70831</v>
+        <v>167272.2865</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>408155.08115</v>
+        <v>415835.69387</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>401536.78347</v>
@@ -2774,13 +2910,18 @@
         <v>420327.95792</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>709921.1181000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>710034.77474</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1012589.839</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2400.86368</v>
@@ -2813,22 +2954,27 @@
         <v>23606.49507</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>45121.80673999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>45121.80674</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>123289.758</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>44998.24453999999</v>
+        <v>44998.24454</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>7005.670549999999</v>
+        <v>7005.67055</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4427.717519999999</v>
+        <v>4427.71752</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>11286.78689</v>
@@ -2837,34 +2983,39 @@
         <v>14273.70181</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8366.1176</v>
+        <v>8366.117600000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>24750.92281</v>
+        <v>25013.92464</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>33259.42719</v>
+        <v>33259.42718999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>13804.19775</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>36593.55669999999</v>
+        <v>36593.5567</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>46197.4443</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>129623.739</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>59236.14676</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>61486.07303999999</v>
+        <v>61486.07304</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>153548.0502</v>
@@ -2876,10 +3027,10 @@
         <v>124312.84319</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>136588.96354</v>
+        <v>142815.54173</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>359275.7476</v>
+        <v>366693.35849</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>331450.8427</v>
@@ -2888,16 +3039,21 @@
         <v>191079.27306</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>360127.9061500001</v>
+        <v>360127.90615</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>618601.86706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>618715.5237000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>759676.3419999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>453902.31524</v>
@@ -2915,28 +3071,33 @@
         <v>-1171881.38048</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>756082.1778099999</v>
+        <v>896055.0487399999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-609335.7542000001</v>
+        <v>-312232.92918</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-8315500.26388</v>
+        <v>-8315503.513509999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-3243006.59675</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-8013040.70573</v>
+        <v>-8013058.261270001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2745623.68384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2753446.84694</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-23722703.542</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>87409.88937999999</v>
@@ -2948,34 +3109,39 @@
         <v>6258.858980000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25408.42591</v>
+        <v>25408.42591000001</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>16440.48866</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15194.32013</v>
+        <v>46070.11721</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>29658.7805</v>
+        <v>76534.69086</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>6643.38763</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>5631.915199999999</v>
+        <v>5631.9152</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>41577.05534000001</v>
+        <v>41577.05534</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>107169.72221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>108588.55665</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>7859.025</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>366492.42586</v>
@@ -2993,25 +3159,28 @@
         <v>-1188321.86914</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>740887.8576799999</v>
+        <v>849984.9315299999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-638994.5347000001</v>
+        <v>-388767.62004</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-8322143.65151</v>
+        <v>-8322146.901140001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-3248638.51195</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-8054617.761069999</v>
+        <v>-8054635.31661</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2638453.96163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2644858.29029</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-23730562.567</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>115</v>
@@ -3047,25 +3219,28 @@
         <v>185</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>207</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>274</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>